--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2928614.311471052</v>
+        <v>3036765.404385346</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8526316.596638758</v>
+        <v>8532359.607226016</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>233.722696575312</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.94942429078246</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>75.95717425609918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>103.2588014327185</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>37.40802781601006</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +913,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>54.30060623883942</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>103.3387326418233</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>142.2232465202411</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.5442597171374</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>225.9004289758732</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>31.0426772556262</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.2299870234509</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877963</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>177.1006680594876</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695543</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819375</v>
+        <v>7.602497644399061</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012181</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.1760114441816</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705936</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>33.82351723687751</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>23.08134457786424</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>79.70119244397701</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>39.96816871822014</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387179</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>159.1991174528865</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.983849834639</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>143.5476780877535</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>71.0584634348817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>53.68707741621096</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127826</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>20.38427178197995</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>100.514050896036</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>14.19454216862647</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289453</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>108.9501037550972</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1068.749016418406</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>657.7631116287989</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>1841.137109080772</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
         <v>1295.75982926932</v>
@@ -4422,10 +4424,10 @@
         <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.6180721558504</v>
+        <v>937.3909343092793</v>
       </c>
       <c r="C4" t="n">
-        <v>532.6818892279435</v>
+        <v>768.4547513813724</v>
       </c>
       <c r="D4" t="n">
-        <v>382.5652498156078</v>
+        <v>618.3381119690366</v>
       </c>
       <c r="E4" t="n">
-        <v>382.5652498156078</v>
+        <v>470.4250183866435</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>323.5350708887331</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>155.5486061970117</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>155.5486061970117</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.400202197398</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>922.4106512993806</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.6180721558504</v>
+        <v>1119.039399139519</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.6454412161679</v>
+        <v>1532.706951134003</v>
       </c>
       <c r="C5" t="n">
-        <v>511.6829242757562</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2507.490231189206</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2253.909170453386</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1922.846283109815</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1922.846283109815</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.78477319198</v>
+        <v>1922.846283109815</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.6454412161679</v>
+        <v>1532.706951134003</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.629344792067</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C7" t="n">
-        <v>155.629344792067</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D7" t="n">
-        <v>155.629344792067</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>673.036065727045</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="W7" t="n">
-        <v>383.6188956900843</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="X7" t="n">
-        <v>155.629344792067</v>
+        <v>641.6752626691663</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.629344792067</v>
+        <v>498.0154176992257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866152</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.40716589034</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>932.4978103100991</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1295.759829269319</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1683.044957866264</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1605.089880422349</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1605.089880422349</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1605.089880422349</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1315.672710385388</v>
       </c>
       <c r="X10" t="n">
-        <v>708.9705521677568</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="11">
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961527</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622705</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177312</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177312</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.15589967238</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811343</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532272</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408913</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408913</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429808</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578605</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758809</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.184661552922</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.184661552922</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654905</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511374</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5494,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5522,7 +5524,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,31 +5533,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5604,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138415</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859347</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859347</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5710,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362704</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797363</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192775</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111724</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286663</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358757</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358757</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776363</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.622461278453</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.426361993333</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
         <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866306</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.92275029663</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822169</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998109</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729144</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389152</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098137</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671696</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650997</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328843</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673041</v>
+        <v>4198.016659856252</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467154</v>
+        <v>3943.332171650365</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430194</v>
+        <v>3653.915001613404</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430194</v>
+        <v>3425.925450715387</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286663</v>
+        <v>3205.132871571857</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310364</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310364</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="29">
@@ -6437,61 +6439,61 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C31" t="n">
-        <v>853.9360528261844</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
         <v>631.7012443408905</v>
@@ -6616,40 +6618,40 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
         <v>1907.987318831765</v>
@@ -6658,13 +6660,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276704</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831311</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070598</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630049</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>776.466420735098</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227623</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403692</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403692</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552491</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>2052.064890853473</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7011,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372933</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C37" t="n">
-        <v>853.594109445026</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326902</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
@@ -7117,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487568</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.378057281681</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346703</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203173</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="38">
@@ -7154,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921476</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556949</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433592</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
         <v>382.4184417036842</v>
@@ -7324,58 +7326,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.372910063109</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.518075718013</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.35591459056</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118215</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289435</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.062654156521</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.062654156521</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711128</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950415</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445483</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445483</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.914133601552</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228104</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.89058478271</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021997</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398595</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.843151638089</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>371.0633721867255</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>203.8672729016054</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683287</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.5911984019045</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>138.9393975111059</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.9377812015499</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>186.5911984019058</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-7.955339370490157e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431577</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.03697526434041</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>172.2294825375382</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450627</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597561</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>252.6994810997135</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903265</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>263.1031298113799</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>206.821805892614</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>185.741486670817</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>66.51053793615066</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.3108630115849</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>73.85777223953474</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168747</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>198.450565907617</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652909</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>45.99097492814173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.008947440555</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>211.5151132204107</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968256</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.34460909112669</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>745646.9764929906</v>
+        <v>752183.0967441685</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="15">
@@ -26326,25 +26328,25 @@
         <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
@@ -26353,7 +26355,7 @@
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>507485.4416245465</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.293728927</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307093</v>
+        <v>133113.8635467445</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719616</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719513</v>
+        <v>7507.368461719643</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719721</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="H4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719635</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719639</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719635</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719639</v>
-      </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642917.9151778683</v>
+        <v>-642917.9151778679</v>
       </c>
       <c r="C6" t="n">
         <v>471833.8683980518</v>
       </c>
       <c r="D6" t="n">
-        <v>310630.0201498385</v>
+        <v>471833.8683980519</v>
       </c>
       <c r="E6" t="n">
-        <v>252032.2496435234</v>
+        <v>69959.26982633222</v>
       </c>
       <c r="F6" t="n">
         <v>577444.7114508788</v>
       </c>
       <c r="G6" t="n">
+        <v>577444.711450879</v>
+      </c>
+      <c r="H6" t="n">
+        <v>577444.7114508788</v>
+      </c>
+      <c r="I6" t="n">
+        <v>577444.7114508788</v>
+      </c>
+      <c r="J6" t="n">
+        <v>409839.5336408962</v>
+      </c>
+      <c r="K6" t="n">
+        <v>577444.7114508788</v>
+      </c>
+      <c r="L6" t="n">
         <v>577444.7114508784</v>
       </c>
-      <c r="H6" t="n">
-        <v>577444.7114508791</v>
-      </c>
-      <c r="I6" t="n">
-        <v>577444.711450879</v>
-      </c>
-      <c r="J6" t="n">
-        <v>409839.533640896</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>444837.4177219518</v>
+      </c>
+      <c r="N6" t="n">
         <v>577444.7114508789</v>
-      </c>
-      <c r="L6" t="n">
-        <v>529150.7414426883</v>
-      </c>
-      <c r="M6" t="n">
-        <v>492389.6835153669</v>
-      </c>
-      <c r="N6" t="n">
-        <v>577444.7114508788</v>
       </c>
       <c r="O6" t="n">
         <v>577444.7114508789</v>
       </c>
       <c r="P6" t="n">
-        <v>577444.7114508788</v>
+        <v>577444.7114508786</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>177.825006197642</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>313.2885143652711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>69.46387376683207</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.537793771182066</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>317.2750138046729</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>152.3575787413943</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>43.09523000474591</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>76.36140683185366</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463432</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>160.3375096801804</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>189.7060187415858</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.47966836558621</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581375</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>558.317784834278</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32254,7 +32256,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043726</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32552,13 +32554,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>592.18749414096</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318521</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578885</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724557</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663286</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375115</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>436.2707275254369</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327591</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>505.8707297931464</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>522.0158803980286</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243139</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.560998372116</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509446</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610858</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,10 +36217,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175218</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587019</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280113</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>73.18080466315254</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3036765.404385346</v>
+        <v>3032628.247135196</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>233.722696575312</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>196.6997841156795</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>22.49396279784942</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>103.2588014327185</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>148.6312137402714</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>54.30060623883942</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>50.98074812542789</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.2232465202411</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="Y8" t="n">
-        <v>225.9004289758732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>31.0426772556262</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>122.0870627977164</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>177.1006680594876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.602497644399061</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>33.82351723687751</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695447</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>23.08134457786424</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>79.70119244397701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>39.96816871822014</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>159.1991174528865</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>143.5476780877535</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.4877306469552</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>53.68707741621096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>4.974488840438626</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.38427178197995</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>14.19454216862647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>108.9501037550972</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1454.537269016651</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>1454.537269016651</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>1454.537269016651</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>1068.749016418406</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>657.7631116287989</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056584</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056584</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.137109080772</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>483.0441129489473</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042426</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>937.3909343092793</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="C4" t="n">
-        <v>768.4547513813724</v>
+        <v>474.6261488621955</v>
       </c>
       <c r="D4" t="n">
-        <v>618.3381119690366</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>470.4250183866435</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>323.5350708887331</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>155.5486061970117</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>155.5486061970117</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1119.039399139519</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.706951134003</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.744434193592</v>
+        <v>690.4032258886166</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>690.4032258886166</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2507.490231189206</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2253.909170453386</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>1922.846283109815</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>1922.846283109815</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X5" t="n">
-        <v>1922.846283109815</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y5" t="n">
-        <v>1532.706951134003</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.0154176992257</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671836</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>869.6648135671836</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>641.6752626691663</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.0154176992257</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1263.725694231566</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.725694231566</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333218</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437142</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056583</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786469</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786469</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1650.325534295688</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310611</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100991</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.759829269319</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866264</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1605.089880422349</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1605.089880422349</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="V10" t="n">
-        <v>1605.089880422349</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1315.672710385388</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.683159487371</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>1087.683159487371</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5077,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
         <v>1859.536823237711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5263,10 +5263,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5606,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492579</v>
@@ -5785,13 +5785,13 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3023.484406741617</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4198.016659856252</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3943.332171650365</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3653.915001613404</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3425.925450715387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3205.132871571857</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687974</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6618,55 +6618,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6779,28 +6779,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2052.064890853473</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7016,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>184.7035232280583</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280583</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.3544215660705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C37" t="n">
-        <v>612.4182386381636</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.0028863963103</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.372910063109</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.518075718013</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2023.916610740955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.9192356072716</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C46" t="n">
-        <v>815.9830526793647</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D46" t="n">
-        <v>665.866413267029</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E46" t="n">
-        <v>517.9533196846359</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F46" t="n">
-        <v>371.0633721867255</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G46" t="n">
-        <v>203.8672729016054</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.591198401905</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621884</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>186.5911984019058</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-7.955339370490157e-13</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.03697526434041</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172.2294825375382</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>252.6994810997135</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>263.1031298113799</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>185.741486670817</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51053793615066</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>73.85777223953474</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>35.12774237125714</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>198.450565907617</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.4594738061305</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.99097492814173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>31.34460909112669</v>
+        <v>99.26785128072171</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
@@ -26355,7 +26355,7 @@
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245465</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.293728927</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133113.8635467445</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719643</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719705</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26444,10 +26444,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642917.9151778679</v>
+        <v>-642917.915177868</v>
       </c>
       <c r="C6" t="n">
-        <v>471833.8683980518</v>
+        <v>471833.8683980519</v>
       </c>
       <c r="D6" t="n">
         <v>471833.8683980519</v>
       </c>
       <c r="E6" t="n">
-        <v>69959.26982633222</v>
+        <v>69611.89057197601</v>
       </c>
       <c r="F6" t="n">
-        <v>577444.7114508788</v>
+        <v>577097.332196522</v>
       </c>
       <c r="G6" t="n">
-        <v>577444.711450879</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="H6" t="n">
-        <v>577444.7114508788</v>
+        <v>577097.3321965219</v>
       </c>
       <c r="I6" t="n">
-        <v>577444.7114508788</v>
+        <v>577097.3321965219</v>
       </c>
       <c r="J6" t="n">
-        <v>409839.5336408962</v>
+        <v>409492.154386539</v>
       </c>
       <c r="K6" t="n">
-        <v>577444.7114508788</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="L6" t="n">
-        <v>577444.7114508784</v>
+        <v>577097.3321965219</v>
       </c>
       <c r="M6" t="n">
-        <v>444837.4177219518</v>
+        <v>444490.0384675948</v>
       </c>
       <c r="N6" t="n">
-        <v>577444.7114508789</v>
+        <v>577097.3321965218</v>
       </c>
       <c r="O6" t="n">
-        <v>577444.7114508789</v>
+        <v>577097.3321965219</v>
       </c>
       <c r="P6" t="n">
-        <v>577444.7114508786</v>
+        <v>577097.3321965218</v>
       </c>
     </row>
   </sheetData>
@@ -26703,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000384</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241352</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>177.825006197642</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>152.5411846017335</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>126.1215102203629</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>1.537793771182066</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>233.2991563319904</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>152.3575787413943</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>96.27076102970098</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,22 +27827,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.36140683185366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627905</v>
       </c>
       <c r="Y8" t="n">
-        <v>160.3375096801804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>189.7060187415858</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>164.1400913234842</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31630,10 +31630,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>404.0195168876591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32724,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32809,7 +32809,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33499,10 +33499,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>290.1088399635148</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>218.6425359394812</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.1786946453898</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>528.7520287839581</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000384</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0158803980286</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36369,10 +36369,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37147,10 +37147,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>91.80490927281453</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3032628.247135196</v>
+        <v>3034388.777437982</v>
       </c>
     </row>
     <row r="7">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>35.54361781414437</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>196.6997841156795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>22.49396279784942</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>246.2325313952521</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>148.6312137402714</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>8.612834663596974</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>50.98074812542789</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>64.50612826256102</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>115.8433520406521</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>196.6997841156786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>120.3332554667397</v>
       </c>
       <c r="U10" t="n">
-        <v>122.0870627977164</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376563</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="17">
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695447</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>67.10592483573218</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>113.4877306469552</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>4.974488840438626</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>41.02686156550217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>70.38407275859021</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331018</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W2" t="n">
-        <v>2363.652677778257</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X2" t="n">
-        <v>2363.652677778257</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y2" t="n">
-        <v>1973.513345802446</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>483.0441129489473</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727986</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.5623317901023</v>
+        <v>938.9442613508772</v>
       </c>
       <c r="C4" t="n">
-        <v>474.6261488621955</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>1387.726391392425</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>1159.736840494407</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901023</v>
+        <v>938.9442613508772</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829028</v>
+        <v>805.7846820932082</v>
       </c>
       <c r="C5" t="n">
-        <v>690.4032258886166</v>
+        <v>436.8221651527965</v>
       </c>
       <c r="D5" t="n">
-        <v>690.4032258886166</v>
+        <v>78.55646654604595</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>78.55646654604595</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>71.61096579684248</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>59.94661956153541</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800312</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868962</v>
+        <v>1582.523854133142</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.96558289315</v>
+        <v>1192.38452215733</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800312</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1627.359273474785</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1627.359273474785</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1269.093574868034</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>883.3053222697899</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>472.3194174801824</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1627.359273474785</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1627.359273474785</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269232</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U10" t="n">
-        <v>1290.147373816994</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,19 +5068,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>634.5603720565526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5357,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5594,16 +5594,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,19 +5831,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5934,13 +5934,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
         <v>1746.193029533436</v>
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6530,19 +6530,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
         <v>577.3880777468471</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="32">
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138411</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3584617859342</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>489.8360330454435</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.591198401905</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>193.3273467878365</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.097444831144797e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>185.0317184880958</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>35.12774237125714</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>72.11969353038562</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>141.4594738061305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.504384641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365052</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,16 +26435,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719705</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719705</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26475,7 +26475,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-642917.915177868</v>
+        <v>-642917.9151778683</v>
       </c>
       <c r="C6" t="n">
-        <v>471833.8683980519</v>
+        <v>471833.8683980515</v>
       </c>
       <c r="D6" t="n">
-        <v>471833.8683980519</v>
+        <v>471833.8683980522</v>
       </c>
       <c r="E6" t="n">
-        <v>69611.89057197601</v>
+        <v>69924.53190089672</v>
       </c>
       <c r="F6" t="n">
-        <v>577097.332196522</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="G6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="H6" t="n">
-        <v>577097.3321965219</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="I6" t="n">
-        <v>577097.3321965219</v>
+        <v>577409.9735254433</v>
       </c>
       <c r="J6" t="n">
-        <v>409492.154386539</v>
+        <v>409804.7957154606</v>
       </c>
       <c r="K6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="L6" t="n">
-        <v>577097.3321965219</v>
+        <v>577409.9735254432</v>
       </c>
       <c r="M6" t="n">
-        <v>444490.0384675948</v>
+        <v>444802.6797965161</v>
       </c>
       <c r="N6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="O6" t="n">
-        <v>577097.3321965219</v>
+        <v>577409.9735254429</v>
       </c>
       <c r="P6" t="n">
-        <v>577097.3321965218</v>
+        <v>577409.9735254428</v>
       </c>
     </row>
   </sheetData>
@@ -26703,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,16 +26983,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>87.90859758464998</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>152.5411846017335</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>126.1215102203629</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>40.29046694133888</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>233.2991563319904</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>292.4057178988084</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.27076102970098</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>187.631515061267</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>295.7043507323019</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>173.0313165627905</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>100.4154405304722</v>
       </c>
       <c r="U10" t="n">
-        <v>164.1400913234842</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31630,10 +31630,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,7 +32326,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32724,7 +32724,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34140,7 +34140,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>373.1786946453898</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202789</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396407</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
